--- a/IAG-goupe1.xlsx
+++ b/IAG-goupe1.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,17 +496,27 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>Semaine du 2020-09-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>Semaine du 2020-10-05 00:00:00</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Semaine du 2020-10-12 00:00:00</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Semaine du 2020-10-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Semaine du 2020-10-26 00:00:00</t>
         </is>
       </c>
     </row>
@@ -524,16 +534,6 @@
       <c r="C2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">IAG-goupe1,JEE,moussa demba </t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,JEE,moussa demba</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,JEE,moussa demba</t>
         </is>
       </c>
     </row>
@@ -544,16 +544,6 @@
           <t>10h-12h</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IAG-goupe1,system information,hafedh sidi </t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,JEE,moussa demba</t>
-        </is>
-      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
           <t>IAG-goupe1,JEE,moussa demba</t>
@@ -567,16 +557,6 @@
           <t>12h-14h</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IAG-goupe1,system information,hafedh sidi </t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,JEE,moussa demba</t>
-        </is>
-      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
           <t>IAG-goupe1,JEE,moussa demba</t>
@@ -592,17 +572,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IAG-goupe1,system information,hafedh sidi </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,JEE,moussa demba</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,JEE,moussa demba</t>
+          <t xml:space="preserve">IAG-goupe1,JEE,moussa demba </t>
         </is>
       </c>
     </row>
@@ -613,14 +583,19 @@
           <t>16h-18h</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,system information,hafedh sidi</t>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IAG-goupe1,system information,hafedh sidi </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>IAG-goupe1,JEE,moussa demba</t>
+          <t>IAG-goupe1,system information,hafedh sidi</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,system information,hafedh sidi</t>
         </is>
       </c>
     </row>
@@ -635,17 +610,7 @@
           <t>08h-10h</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IAG-goupe1,JEE,moussa demba </t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,system information,hafedh sidi</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>IAG-goupe1,system information,hafedh sidi</t>
         </is>
@@ -658,6 +623,11 @@
           <t>10h-12h</t>
         </is>
       </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,JEE,moussa demba</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
@@ -666,11 +636,6 @@
           <t>12h-14h</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IAG-goupe1,system information,hafedh sidi </t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n"/>
@@ -681,7 +646,17 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IAG-goupe1,system information,hafedh sidi </t>
+          <t xml:space="preserve">IAG-goupe1,JEE,moussa demba </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,system information,hafedh sidi</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,JEE,moussa demba</t>
         </is>
       </c>
     </row>
@@ -692,9 +667,19 @@
           <t>16h-18h</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IAG-goupe1,system information,hafedh sidi </t>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,system information,hafedh sidi</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,system information,hafedh sidi</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,system information,hafedh sidi</t>
         </is>
       </c>
     </row>
@@ -712,6 +697,21 @@
       <c r="C12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">IAG-goupe1,JEE,moussa demba </t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,JEE,moussa demba</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,JEE,moussa demba</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,system information,hafedh sidi</t>
         </is>
       </c>
     </row>
@@ -722,9 +722,14 @@
           <t>10h-12h</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IAG-goupe1,JEE,moussa demba </t>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,JEE,moussa demba</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,JEE,moussa demba</t>
         </is>
       </c>
     </row>
@@ -735,9 +740,14 @@
           <t>12h-14h</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IAG-goupe1,system information,hafedh sidi </t>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,system information,hafedh sidi</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,JEE,moussa demba</t>
         </is>
       </c>
     </row>
@@ -748,6 +758,11 @@
           <t>14h-16h</t>
         </is>
       </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,JEE,moussa demba</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
@@ -756,9 +771,9 @@
           <t>16h-18h</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,system information,hafedh sidi</t>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,JEE,moussa demba</t>
         </is>
       </c>
     </row>
@@ -773,9 +788,9 @@
           <t>08h-10h</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,system information,hafedh sidi</t>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,JEE,moussa demba</t>
         </is>
       </c>
     </row>
@@ -786,7 +801,12 @@
           <t>10h-12h</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IAG-goupe1,system information,hafedh sidi </t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>IAG-goupe1,system information,hafedh sidi</t>
         </is>
@@ -799,9 +819,14 @@
           <t>12h-14h</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,JEE,moussa demba</t>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,system information,hafedh sidi</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>IAG-goupe1,system information,hafedh sidi</t>
         </is>
       </c>
     </row>
@@ -812,6 +837,11 @@
           <t>14h-16h</t>
         </is>
       </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IAG-goupe1,system information,hafedh sidi </t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
@@ -820,11 +850,6 @@
           <t>16h-18h</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IAG-goupe1,system information,hafedh sidi </t>
-        </is>
-      </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
           <t>IAG-goupe1,system information,hafedh sidi</t>
@@ -840,16 +865,6 @@
       <c r="B22" s="3" t="inlineStr">
         <is>
           <t>08h-10h</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IAG-goupe1,JEE,moussa demba </t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,system information,hafedh sidi</t>
         </is>
       </c>
     </row>
@@ -858,11 +873,6 @@
       <c r="B23" s="3" t="inlineStr">
         <is>
           <t>10h-12h</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>IAG-goupe1,JEE,moussa demba</t>
         </is>
       </c>
     </row>
